--- a/pred_ohlcv/54/2019-10-16 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 PIVX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>835.75</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -894,6 +953,9 @@
         <v>823.1666666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,6 +982,9 @@
         <v>821.7333333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,7 +1011,10 @@
         <v>820.5666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -972,7 +1040,10 @@
         <v>818.9166666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1024,6 +1098,9 @@
         <v>816.15</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>815.2333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,553 +1156,10 @@
         <v>813.5833333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>798</v>
-      </c>
-      <c r="C28" t="n">
-        <v>781</v>
-      </c>
-      <c r="D28" t="n">
-        <v>798</v>
-      </c>
-      <c r="E28" t="n">
-        <v>781</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2434.838</v>
-      </c>
-      <c r="G28" t="n">
-        <v>812.0666666666667</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>781</v>
-      </c>
-      <c r="C29" t="n">
-        <v>798</v>
-      </c>
-      <c r="D29" t="n">
-        <v>798</v>
-      </c>
-      <c r="E29" t="n">
-        <v>781</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.9523</v>
-      </c>
-      <c r="G29" t="n">
-        <v>810.8333333333334</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>792</v>
-      </c>
-      <c r="C30" t="n">
-        <v>793</v>
-      </c>
-      <c r="D30" t="n">
-        <v>793</v>
-      </c>
-      <c r="E30" t="n">
-        <v>792</v>
-      </c>
-      <c r="F30" t="n">
-        <v>570.9181</v>
-      </c>
-      <c r="G30" t="n">
-        <v>810.15</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>795</v>
-      </c>
-      <c r="C31" t="n">
-        <v>797</v>
-      </c>
-      <c r="D31" t="n">
-        <v>797</v>
-      </c>
-      <c r="E31" t="n">
-        <v>795</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2484.8371</v>
-      </c>
-      <c r="G31" t="n">
-        <v>809.6666666666666</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>829</v>
-      </c>
-      <c r="C32" t="n">
-        <v>829</v>
-      </c>
-      <c r="D32" t="n">
-        <v>829</v>
-      </c>
-      <c r="E32" t="n">
-        <v>829</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>809.3666666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>814</v>
-      </c>
-      <c r="C33" t="n">
-        <v>815</v>
-      </c>
-      <c r="D33" t="n">
-        <v>815</v>
-      </c>
-      <c r="E33" t="n">
-        <v>814</v>
-      </c>
-      <c r="F33" t="n">
-        <v>637.7643</v>
-      </c>
-      <c r="G33" t="n">
-        <v>808.9</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>829</v>
-      </c>
-      <c r="C34" t="n">
-        <v>829</v>
-      </c>
-      <c r="D34" t="n">
-        <v>829</v>
-      </c>
-      <c r="E34" t="n">
-        <v>829</v>
-      </c>
-      <c r="F34" t="n">
-        <v>128.0241</v>
-      </c>
-      <c r="G34" t="n">
-        <v>808.8833333333333</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>798</v>
-      </c>
-      <c r="C35" t="n">
-        <v>798</v>
-      </c>
-      <c r="D35" t="n">
-        <v>799</v>
-      </c>
-      <c r="E35" t="n">
-        <v>798</v>
-      </c>
-      <c r="F35" t="n">
-        <v>99.96259999999999</v>
-      </c>
-      <c r="G35" t="n">
-        <v>808.6666666666666</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>788</v>
-      </c>
-      <c r="C36" t="n">
-        <v>780</v>
-      </c>
-      <c r="D36" t="n">
-        <v>788</v>
-      </c>
-      <c r="E36" t="n">
-        <v>780</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3151.6629</v>
-      </c>
-      <c r="G36" t="n">
-        <v>807.6833333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>781</v>
-      </c>
-      <c r="C37" t="n">
-        <v>771</v>
-      </c>
-      <c r="D37" t="n">
-        <v>781</v>
-      </c>
-      <c r="E37" t="n">
-        <v>771</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1942.6677</v>
-      </c>
-      <c r="G37" t="n">
-        <v>806.9333333333333</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>771</v>
-      </c>
-      <c r="C38" t="n">
-        <v>771</v>
-      </c>
-      <c r="D38" t="n">
-        <v>771</v>
-      </c>
-      <c r="E38" t="n">
-        <v>771</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>805.8166666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>801</v>
-      </c>
-      <c r="C39" t="n">
-        <v>801</v>
-      </c>
-      <c r="D39" t="n">
-        <v>801</v>
-      </c>
-      <c r="E39" t="n">
-        <v>801</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>805.2333333333333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>781</v>
-      </c>
-      <c r="C40" t="n">
-        <v>780</v>
-      </c>
-      <c r="D40" t="n">
-        <v>781</v>
-      </c>
-      <c r="E40" t="n">
-        <v>780</v>
-      </c>
-      <c r="F40" t="n">
-        <v>25</v>
-      </c>
-      <c r="G40" t="n">
-        <v>804.4</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>780</v>
-      </c>
-      <c r="C41" t="n">
-        <v>797</v>
-      </c>
-      <c r="D41" t="n">
-        <v>797</v>
-      </c>
-      <c r="E41" t="n">
-        <v>780</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>803.8666666666667</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>797</v>
-      </c>
-      <c r="C42" t="n">
-        <v>799</v>
-      </c>
-      <c r="D42" t="n">
-        <v>799</v>
-      </c>
-      <c r="E42" t="n">
-        <v>797</v>
-      </c>
-      <c r="F42" t="n">
-        <v>830.7546</v>
-      </c>
-      <c r="G42" t="n">
-        <v>803.3666666666667</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>798</v>
-      </c>
-      <c r="C43" t="n">
-        <v>799</v>
-      </c>
-      <c r="D43" t="n">
-        <v>799</v>
-      </c>
-      <c r="E43" t="n">
-        <v>798</v>
-      </c>
-      <c r="F43" t="n">
-        <v>531.8146</v>
-      </c>
-      <c r="G43" t="n">
-        <v>802.3833333333333</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>800</v>
-      </c>
-      <c r="C44" t="n">
-        <v>835</v>
-      </c>
-      <c r="D44" t="n">
-        <v>835</v>
-      </c>
-      <c r="E44" t="n">
-        <v>800</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3855.9861</v>
-      </c>
-      <c r="G44" t="n">
-        <v>802.0166666666667</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>835</v>
-      </c>
-      <c r="C45" t="n">
-        <v>835</v>
-      </c>
-      <c r="D45" t="n">
-        <v>835</v>
-      </c>
-      <c r="E45" t="n">
-        <v>835</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2244.8002</v>
-      </c>
-      <c r="G45" t="n">
-        <v>801.6666666666666</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>835</v>
-      </c>
-      <c r="C46" t="n">
-        <v>835</v>
-      </c>
-      <c r="D46" t="n">
-        <v>835</v>
-      </c>
-      <c r="E46" t="n">
-        <v>835</v>
-      </c>
-      <c r="F46" t="n">
-        <v>165.7494</v>
-      </c>
-      <c r="G46" t="n">
-        <v>802.1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>835</v>
-      </c>
-      <c r="C47" t="n">
-        <v>835</v>
-      </c>
-      <c r="D47" t="n">
-        <v>835</v>
-      </c>
-      <c r="E47" t="n">
-        <v>835</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G47" t="n">
-        <v>802.35</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>806</v>
-      </c>
-      <c r="C48" t="n">
-        <v>806</v>
-      </c>
-      <c r="D48" t="n">
-        <v>806</v>
-      </c>
-      <c r="E48" t="n">
-        <v>806</v>
-      </c>
-      <c r="F48" t="n">
-        <v>111.9</v>
-      </c>
-      <c r="G48" t="n">
-        <v>802.3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
